--- a/uploads/Student.xlsx
+++ b/uploads/Student.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
   <si>
     <t>ID</t>
   </si>
@@ -162,6 +162,12 @@
   </si>
   <si>
     <t>October 5, 1998</t>
+  </si>
+  <si>
+    <t>0966777444</t>
+  </si>
+  <si>
+    <t>0244551225</t>
   </si>
 </sst>
 </file>
@@ -569,7 +575,7 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -663,8 +669,8 @@
       <c r="K2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L2">
-        <v>966777444</v>
+      <c r="L2" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="M2" t="s">
         <v>19</v>
@@ -713,8 +719,8 @@
       <c r="K3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="L3">
-        <v>244551225</v>
+      <c r="L3" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="M3" t="s">
         <v>19</v>
